--- a/选题：9超市管理系统/数据库设计.xlsx
+++ b/选题：9超市管理系统/数据库设计.xlsx
@@ -8,15 +8,190 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>包含品牌，名称，规格，净含量，净含量单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录商品的口味</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KG
+G
+L
+ML</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>个，袋，瓶，桶，罐……等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以天为单位</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>记录商品的口味</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>key</t>
   </si>
@@ -53,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commodity_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,19 +239,7 @@
     <t>privilege</t>
   </si>
   <si>
-    <t>privilege</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,7 +300,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>commodity_type</t>
+    <t>购买日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报废日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>but_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrapped_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>life_id</t>
+  </si>
+  <si>
+    <t>set_time</t>
+  </si>
+  <si>
+    <t>商品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保质期编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>commodity_information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>商品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>net_weight</t>
+  </si>
+  <si>
+    <t>net_weight_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code</t>
+  </si>
+  <si>
+    <t>inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_unti</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品全名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净含量</t>
+  </si>
+  <si>
+    <t>净含量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位条码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品计量单位</t>
+  </si>
+  <si>
+    <t>进价</t>
+  </si>
+  <si>
+    <t>商品保质期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodity_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>Production_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>生产日期</t>
+  </si>
+  <si>
+    <t>保质期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +566,63 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +632,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,11 +713,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,16 +762,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -583,266 +1093,747 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1"/>
-    <row r="2" spans="1:20" ht="15" thickBot="1">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="B3" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1"/>
+    <row r="38" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1"/>
+    <row r="48" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="7"/>
+      <c r="B49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" s="1" t="s">
+    <row r="50" spans="1:5">
+      <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:T2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>